--- a/example_inputs/FY22_INEP_Staff_List.xlsx
+++ b/example_inputs/FY22_INEP_Staff_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstadni2\Box\FCS Data Analyst\GitHub Repos\replace_pears_sensitive_data\cleaned_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstadni2\Box\FCS Data Analyst\GitHub Repos\fakepearsdata\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73BCD53-BB83-4473-B3A1-727847F20FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2F9AF-66B7-4043-AE43-35BEFE8AA2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNAP-Ed Staff List" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="CPHP Staff List" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'CPHP Staff List'!$A$4:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FCS State Office'!$A$2:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Former Staff'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HEAT Project Staff'!$A$2:$K$23</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="443">
   <si>
     <t>UNIT #</t>
   </si>
@@ -67,28 +68,28 @@
     <t>CW</t>
   </si>
   <si>
-    <t>21124, User</t>
-  </si>
-  <si>
-    <t>21124@fake_domain.com</t>
+    <t>Jackson, Wendy</t>
+  </si>
+  <si>
+    <t>Wendy.Jackson@fake_domain.com</t>
   </si>
   <si>
     <t>Lake</t>
   </si>
   <si>
-    <t>17691, User</t>
-  </si>
-  <si>
-    <t>14467, User</t>
+    <t>Smith, James</t>
+  </si>
+  <si>
+    <t>Marquez, Brandon</t>
   </si>
   <si>
     <t>EPC</t>
   </si>
   <si>
-    <t>14422, User</t>
-  </si>
-  <si>
-    <t>14422@fake_domain.com</t>
+    <t>Davis, Rhonda</t>
+  </si>
+  <si>
+    <t>Rhonda.Davis@fake_domain.com</t>
   </si>
   <si>
     <t>U3</t>
@@ -97,946 +98,982 @@
     <t>UE</t>
   </si>
   <si>
-    <t>14566, User</t>
-  </si>
-  <si>
-    <t>14566@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14419, User</t>
-  </si>
-  <si>
-    <t>14419@fake_domain.com</t>
-  </si>
-  <si>
-    <t>16381, User</t>
-  </si>
-  <si>
-    <t>16381@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14346, User</t>
-  </si>
-  <si>
-    <t>14346@fake_domain.com</t>
+    <t>Parks, Michelle</t>
+  </si>
+  <si>
+    <t>Michelle.Parks@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Smith, Alan</t>
+  </si>
+  <si>
+    <t>Alan.Smith@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Bradford, Christina</t>
+  </si>
+  <si>
+    <t>Christina.Bradford@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Hicks, Jennifer</t>
+  </si>
+  <si>
+    <t>Jennifer.Hicks@fake_domain.com</t>
+  </si>
+  <si>
+    <t>McLean</t>
+  </si>
+  <si>
+    <t>Beck, Justin</t>
+  </si>
+  <si>
+    <t>Mitchell, Stephanie</t>
+  </si>
+  <si>
+    <t>Molina, Katherine</t>
+  </si>
+  <si>
+    <t>Katherine.Molina@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Wood, Michelle</t>
+  </si>
+  <si>
+    <t>Michelle.Wood@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Champaign (Rantoul)</t>
+  </si>
+  <si>
+    <t>Lyons, Tammy</t>
+  </si>
+  <si>
+    <t>Williamson, Shane</t>
+  </si>
+  <si>
+    <t>Shane.Williamson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Vermilion</t>
+  </si>
+  <si>
+    <t>Rogers, Mark</t>
+  </si>
+  <si>
+    <t>Mark.Rogers@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>Spears, Martha</t>
+  </si>
+  <si>
+    <t>Martha.Spears@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Champaign/Vermilion</t>
+  </si>
+  <si>
+    <t>Rogers, John</t>
+  </si>
+  <si>
+    <t>John.Rogers@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>Lawrence, Carla</t>
+  </si>
+  <si>
+    <t>Bates, Kayla</t>
+  </si>
+  <si>
+    <t>Kayla.Bates@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Garcia, Megan</t>
+  </si>
+  <si>
+    <t>Megan.Garcia@fake_domain.com</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>Horn, Noah</t>
+  </si>
+  <si>
+    <t>Noah.Horn@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Coles / Shelby</t>
+  </si>
+  <si>
+    <t>Blackwell, Andrew</t>
+  </si>
+  <si>
+    <t>Jackson, Paul</t>
+  </si>
+  <si>
+    <t>Paul.Jackson@fake_domain.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coles</t>
+  </si>
+  <si>
+    <t>Horn, Jordan</t>
+  </si>
+  <si>
+    <t>Jordan.Horn@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Brown, Philip</t>
+  </si>
+  <si>
+    <t>Hayes, Robert</t>
+  </si>
+  <si>
+    <t>Robert.Hayes@fake_domain.com</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>Allen, Daniel</t>
+  </si>
+  <si>
+    <t>Huffman, Jeremy</t>
+  </si>
+  <si>
+    <t>Jeremy.Huffman@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Effingham</t>
+  </si>
+  <si>
+    <t>Myers, Nichole</t>
+  </si>
+  <si>
+    <t>Nichole.Myers@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Nguyen, Adam</t>
+  </si>
+  <si>
+    <t>Adam.Nguyen@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Wade, Stacey</t>
+  </si>
+  <si>
+    <t>Smith, Patrick</t>
+  </si>
+  <si>
+    <t>Mendoza, Sue</t>
+  </si>
+  <si>
+    <t>Sue.Mendoza@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Moreno, Todd</t>
+  </si>
+  <si>
+    <t>Todd.Moreno@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Richland</t>
+  </si>
+  <si>
+    <t>Clay, Cody</t>
+  </si>
+  <si>
+    <t>Valenzuela, Michael</t>
+  </si>
+  <si>
+    <t>Michael.Valenzuela@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Edwards / Wayne</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Martinez, James</t>
+  </si>
+  <si>
+    <t>James.Martinez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Taylor, Michael</t>
+  </si>
+  <si>
+    <t>Michael.Taylor@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Lawrence / Wabash</t>
+  </si>
+  <si>
+    <t>Moreno, Tonya</t>
+  </si>
+  <si>
+    <t>Tonya.Moreno@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Moore, Alan</t>
+  </si>
+  <si>
+    <t>Cox, Jason</t>
+  </si>
+  <si>
+    <t>Jason.Cox@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Vazquez, Lori</t>
+  </si>
+  <si>
+    <t>Lori.Vazquez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Perry / Randolph</t>
+  </si>
+  <si>
+    <t>Goodwin, Caroline</t>
+  </si>
+  <si>
+    <t>Caroline.Goodwin@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Whitehead, Sara</t>
+  </si>
+  <si>
+    <t>Sara.Whitehead@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>Rivera, Jennifer</t>
+  </si>
+  <si>
+    <t>Jennifer.Rivera@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Massac</t>
+  </si>
+  <si>
+    <t>Martin, Stephanie</t>
+  </si>
+  <si>
+    <t>Cook, Edward</t>
+  </si>
+  <si>
+    <t>Edward.Cook@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Pulaski</t>
+  </si>
+  <si>
+    <t>Mcgee, Bryan</t>
+  </si>
+  <si>
+    <t>Bryan.Mcgee@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>HEAT FTE</t>
+  </si>
+  <si>
+    <t>Hammond, Kim</t>
+  </si>
+  <si>
+    <t>Kim.Hammond@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Mcgrath, Philip</t>
+  </si>
+  <si>
+    <t>Philip.Mcgrath@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Lake/McHenry</t>
+  </si>
+  <si>
+    <t>UE - CED</t>
+  </si>
+  <si>
+    <t>Escobar, Gary</t>
+  </si>
+  <si>
+    <t>Gary.Escobar@fake_domain.com</t>
+  </si>
+  <si>
+    <t>U26 &amp; U27</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>Baker, Debbie</t>
+  </si>
+  <si>
+    <t>Senior Program Lead, SNAP-Ed</t>
+  </si>
+  <si>
+    <t>Debbie.Baker@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Brown, Dennis</t>
+  </si>
+  <si>
+    <t>Outreach Associate</t>
+  </si>
+  <si>
+    <t>Dennis.Brown@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Gregory, Bradley</t>
+  </si>
+  <si>
+    <t>Visiting Outreach Associate</t>
+  </si>
+  <si>
+    <t>Bradley.Gregory@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Regional Specialist</t>
+  </si>
+  <si>
+    <t>Stacey.Wade@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Bullock, Sophia</t>
+  </si>
+  <si>
+    <t>Academic Hourly</t>
+  </si>
+  <si>
+    <t>Sophia.Bullock@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Brown, Robert</t>
+  </si>
+  <si>
+    <t>Assistant Dean</t>
+  </si>
+  <si>
+    <t>Robert.Brown@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Garcia, Lisa</t>
+  </si>
+  <si>
+    <t>Publicity/Promo Associate</t>
+  </si>
+  <si>
+    <t>Lisa.Garcia@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Whitehead, Shane</t>
+  </si>
+  <si>
+    <t>Senior Manager, Digital Education</t>
+  </si>
+  <si>
+    <t>Shane.Whitehead@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Ortiz, Dawn</t>
+  </si>
+  <si>
+    <t>Dawn.Ortiz@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Hall, Michael</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Michael.Hall@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Wise, Megan</t>
+  </si>
+  <si>
+    <t>Senior Manager, PSE</t>
+  </si>
+  <si>
+    <t>Megan.Wise@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>First Name, Last Name (Zaheeda)</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Leah Erke</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Trinity Allison</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Leia Flure</t>
+  </si>
+  <si>
+    <t>RE E-MAIL</t>
+  </si>
+  <si>
+    <t>CD E-MAIL</t>
+  </si>
+  <si>
+    <t>COUNTIES</t>
+  </si>
+  <si>
+    <t>James.Smith@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Brandon.Marquez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Lake, Mchenry</t>
+  </si>
+  <si>
+    <t>Armstrong, Megan</t>
+  </si>
+  <si>
+    <t>Megan.Armstrong@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Justin.Beck@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Stephanie.Mitchell@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Livingston, Mclean, Woodford</t>
+  </si>
+  <si>
+    <t>Tammy.Lyons@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Champaign, Ford, Iroquois, Vermilion</t>
+  </si>
+  <si>
+    <t>Carla.Lawrence@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Dewitt, Piatt, Macon</t>
+  </si>
+  <si>
+    <t>Philip.Brown@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Clark, Crawford, Edgar</t>
+  </si>
+  <si>
+    <t>Daniel.Allen@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Clay, Effingham, Fayette, Jasper</t>
+  </si>
+  <si>
+    <t>Cody.Clay@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Edwards, Lawrence, Richland, Wabash, Wayne</t>
+  </si>
+  <si>
+    <t>Alan.Moore@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Franklin, Jackson, Perry, Randolph, Williamson</t>
+  </si>
+  <si>
+    <t>Stephanie.Martin@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Alexander, Johnson, Massac, Pulaski, Union</t>
+  </si>
+  <si>
+    <t>COUNTY/LOCATION</t>
+  </si>
+  <si>
+    <t>WPP</t>
+  </si>
+  <si>
+    <t>Hinton, John</t>
+  </si>
+  <si>
+    <t>John.Hinton@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Cook North</t>
+  </si>
+  <si>
+    <t>Murphy, Selena</t>
+  </si>
+  <si>
+    <t>Selena.Murphy@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Cook South</t>
+  </si>
+  <si>
+    <t>Martin, Heather</t>
+  </si>
+  <si>
+    <t>Heather.Martin@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Medina, Monica</t>
+  </si>
+  <si>
+    <t>Monica.Medina@fake_domain.com</t>
+  </si>
+  <si>
+    <t>James, Ryan</t>
+  </si>
+  <si>
+    <t>Ryan.James@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Herman, Sharon</t>
+  </si>
+  <si>
+    <t>Sharon.Herman@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Wagner, Nicole</t>
+  </si>
+  <si>
+    <t>Nicole.Wagner@fake_domain.com</t>
+  </si>
+  <si>
+    <t>CW-XH</t>
+  </si>
+  <si>
+    <t>Nguyen, Raymond</t>
+  </si>
+  <si>
+    <t>Raymond.Nguyen@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Madison/St Clair</t>
+  </si>
+  <si>
+    <t>Thomas, Louis</t>
+  </si>
+  <si>
+    <t>Louis.Thomas@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Wiley, Suzanne</t>
+  </si>
+  <si>
+    <t>Suzanne.Wiley@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Douglas, Johnny</t>
+  </si>
+  <si>
+    <t>Johnny.Douglas@fake_domain.com</t>
+  </si>
+  <si>
+    <t>NETID</t>
+  </si>
+  <si>
+    <t>PROG AREA</t>
+  </si>
+  <si>
+    <t>RESIGN DATE</t>
+  </si>
+  <si>
+    <t>Hanson, Alicia</t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t>SNAP-Ed</t>
+  </si>
+  <si>
+    <t>Winnebago</t>
+  </si>
+  <si>
+    <t>Aguilar, Jessica</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Carson, Richard</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>Ogle</t>
+  </si>
+  <si>
+    <t>Walker, William</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>DeKalb</t>
+  </si>
+  <si>
+    <t>Thompson, Shawn</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Griffith, Christine</t>
+  </si>
+  <si>
+    <t>Griffith</t>
   </si>
   <si>
     <t>McHenry</t>
   </si>
   <si>
-    <t>20378, User</t>
-  </si>
-  <si>
-    <t>20378@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14564, User</t>
-  </si>
-  <si>
-    <t>14564@fake_domain.com</t>
-  </si>
-  <si>
-    <t>McLean</t>
-  </si>
-  <si>
-    <t>20703, User</t>
-  </si>
-  <si>
-    <t>14247, User</t>
-  </si>
-  <si>
-    <t>14380, User</t>
-  </si>
-  <si>
-    <t>14380@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14782, User</t>
-  </si>
-  <si>
-    <t>14782@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Champaign (Rantoul)</t>
-  </si>
-  <si>
-    <t>14248, User</t>
-  </si>
-  <si>
-    <t>14384, User</t>
-  </si>
-  <si>
-    <t>14384@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Vermilion</t>
-  </si>
-  <si>
-    <t>14356, User</t>
-  </si>
-  <si>
-    <t>14356@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Champaign</t>
-  </si>
-  <si>
-    <t>18589, User</t>
-  </si>
-  <si>
-    <t>18589@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Champaign/Vermilion</t>
-  </si>
-  <si>
-    <t>17958, User</t>
-  </si>
-  <si>
-    <t>17958@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Macon</t>
-  </si>
-  <si>
-    <t>14252, User</t>
-  </si>
-  <si>
-    <t>20375, User</t>
-  </si>
-  <si>
-    <t>20375@fake_domain.com</t>
-  </si>
-  <si>
-    <t>20885, User</t>
-  </si>
-  <si>
-    <t>20885@fake_domain.com</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>17840, User</t>
-  </si>
-  <si>
-    <t>17840@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Coles / Shelby</t>
-  </si>
-  <si>
-    <t>22370, User</t>
-  </si>
-  <si>
-    <t>14400, User</t>
-  </si>
-  <si>
-    <t>14400@fake_domain.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coles</t>
-  </si>
-  <si>
-    <t>14404, User</t>
-  </si>
-  <si>
-    <t>14404@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>14256, User</t>
-  </si>
-  <si>
-    <t>14565, User</t>
-  </si>
-  <si>
-    <t>14565@fake_domain.com</t>
-  </si>
-  <si>
-    <t>U21</t>
-  </si>
-  <si>
-    <t>14257, User</t>
-  </si>
-  <si>
-    <t>15233, User</t>
-  </si>
-  <si>
-    <t>15233@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Effingham</t>
-  </si>
-  <si>
-    <t>14405, User</t>
-  </si>
-  <si>
-    <t>14405@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>14412, User</t>
-  </si>
-  <si>
-    <t>14412@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>14766, User</t>
-  </si>
-  <si>
-    <t>18015, User</t>
-  </si>
-  <si>
-    <t>14414, User</t>
-  </si>
-  <si>
-    <t>14414@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>21461, User</t>
-  </si>
-  <si>
-    <t>21461@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Richland</t>
-  </si>
-  <si>
-    <t>19915, User</t>
-  </si>
-  <si>
-    <t>22230, User</t>
-  </si>
-  <si>
-    <t>22230@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Edwards / Wayne</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>15214, User</t>
-  </si>
-  <si>
-    <t>15214@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Wayne</t>
-  </si>
-  <si>
-    <t>14416, User</t>
-  </si>
-  <si>
-    <t>14416@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Lawrence / Wabash</t>
-  </si>
-  <si>
-    <t>20909, User</t>
-  </si>
-  <si>
-    <t>20909@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>14260, User</t>
-  </si>
-  <si>
-    <t>20907, User</t>
-  </si>
-  <si>
-    <t>20907@fake_domain.com</t>
-  </si>
-  <si>
-    <t>16584, User</t>
-  </si>
-  <si>
-    <t>16584@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Perry / Randolph</t>
-  </si>
-  <si>
-    <t>22781, User</t>
-  </si>
-  <si>
-    <t>22781@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>22599, User</t>
-  </si>
-  <si>
-    <t>22599@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Williamson</t>
-  </si>
-  <si>
-    <t>14365, User</t>
-  </si>
-  <si>
-    <t>14365@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Massac</t>
-  </si>
-  <si>
-    <t>14261, User</t>
-  </si>
-  <si>
-    <t>14363, User</t>
-  </si>
-  <si>
-    <t>14363@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Pulaski</t>
-  </si>
-  <si>
-    <t>14364, User</t>
-  </si>
-  <si>
-    <t>14364@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>HEAT FTE</t>
-  </si>
-  <si>
-    <t>21473, User</t>
-  </si>
-  <si>
-    <t>21473@fake_domain.com</t>
-  </si>
-  <si>
-    <t>20187, User</t>
-  </si>
-  <si>
-    <t>20187@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Lake/McHenry</t>
-  </si>
-  <si>
-    <t>UE - CED</t>
-  </si>
-  <si>
-    <t>22680, User</t>
-  </si>
-  <si>
-    <t>22680@fake_domain.com</t>
-  </si>
-  <si>
-    <t>U26 &amp; U27</t>
-  </si>
-  <si>
-    <t>FTE</t>
-  </si>
-  <si>
-    <t>14572, User</t>
-  </si>
-  <si>
-    <t>Senior Program Lead, SNAP-Ed</t>
-  </si>
-  <si>
-    <t>14572@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14765, User</t>
-  </si>
-  <si>
-    <t>Outreach Associate</t>
-  </si>
-  <si>
-    <t>14765@fake_domain.com</t>
-  </si>
-  <si>
-    <t>17566, User</t>
-  </si>
-  <si>
-    <t>Visiting Outreach Associate</t>
-  </si>
-  <si>
-    <t>17566@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Regional Specialist</t>
-  </si>
-  <si>
-    <t>14766@fake_domain.com</t>
-  </si>
-  <si>
-    <t>20304, User</t>
-  </si>
-  <si>
-    <t>Academic Hourly</t>
-  </si>
-  <si>
-    <t>20304@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14242, User</t>
-  </si>
-  <si>
-    <t>Assistant Dean</t>
-  </si>
-  <si>
-    <t>14242@fake_domain.com</t>
-  </si>
-  <si>
-    <t>17913, User</t>
-  </si>
-  <si>
-    <t>Publicity/Promo Associate</t>
-  </si>
-  <si>
-    <t>17913@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14587, User</t>
-  </si>
-  <si>
-    <t>Senior Manager, Digital Education</t>
-  </si>
-  <si>
-    <t>14587@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14509, User</t>
-  </si>
-  <si>
-    <t>14509@fake_domain.com</t>
-  </si>
-  <si>
-    <t>20764, User</t>
-  </si>
-  <si>
-    <t>Data Analyst</t>
-  </si>
-  <si>
-    <t>20764@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14561, User</t>
-  </si>
-  <si>
-    <t>Senior Manager, PSE</t>
-  </si>
-  <si>
-    <t>14561@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Serial number</t>
-  </si>
-  <si>
-    <t>First Name, Last Name (Zaheeda)</t>
-  </si>
-  <si>
-    <t>OA</t>
-  </si>
-  <si>
-    <t>Leah Erke</t>
-  </si>
-  <si>
-    <t>Campus</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Trinity Allison</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>Leia Flure</t>
-  </si>
-  <si>
-    <t>RE E-MAIL</t>
-  </si>
-  <si>
-    <t>CD E-MAIL</t>
-  </si>
-  <si>
-    <t>COUNTIES</t>
-  </si>
-  <si>
-    <t>17691@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14467@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Lake, Mchenry</t>
-  </si>
-  <si>
-    <t>14265, User</t>
-  </si>
-  <si>
-    <t>14265@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>20703@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14247@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Livingston, Mclean, Woodford</t>
-  </si>
-  <si>
-    <t>14248@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Champaign, Ford, Iroquois, Vermilion</t>
-  </si>
-  <si>
-    <t>14252@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Dewitt, Piatt, Macon</t>
-  </si>
-  <si>
-    <t>14256@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Clark, Crawford, Edgar</t>
-  </si>
-  <si>
-    <t>14257@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Clay, Effingham, Fayette, Jasper</t>
-  </si>
-  <si>
-    <t>19915@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Edwards, Lawrence, Richland, Wabash, Wayne</t>
-  </si>
-  <si>
-    <t>14260@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Franklin, Jackson, Perry, Randolph, Williamson</t>
-  </si>
-  <si>
-    <t>14261@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Alexander, Johnson, Massac, Pulaski, Union</t>
-  </si>
-  <si>
-    <t>COUNTY/LOCATION</t>
-  </si>
-  <si>
-    <t>WPP</t>
-  </si>
-  <si>
-    <t>14789, User</t>
-  </si>
-  <si>
-    <t>14789@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Cook North</t>
-  </si>
-  <si>
-    <t>15213, User</t>
-  </si>
-  <si>
-    <t>15213@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Cook South</t>
-  </si>
-  <si>
-    <t>22282, User</t>
-  </si>
-  <si>
-    <t>22282@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Educator</t>
-  </si>
-  <si>
-    <t>14558, User</t>
-  </si>
-  <si>
-    <t>14558@fake_domain.com</t>
-  </si>
-  <si>
-    <t>15615, User</t>
-  </si>
-  <si>
-    <t>15615@fake_domain.com</t>
-  </si>
-  <si>
-    <t>20606, User</t>
-  </si>
-  <si>
-    <t>20606@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14362, User</t>
-  </si>
-  <si>
-    <t>14362@fake_domain.com</t>
-  </si>
-  <si>
-    <t>CW-XH</t>
-  </si>
-  <si>
-    <t>21477, User</t>
-  </si>
-  <si>
-    <t>21477@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Madison/St Clair</t>
-  </si>
-  <si>
-    <t>23033, User</t>
-  </si>
-  <si>
-    <t>23033@fake_domain.com</t>
-  </si>
-  <si>
-    <t>22432, User</t>
-  </si>
-  <si>
-    <t>22432@fake_domain.com</t>
-  </si>
-  <si>
-    <t>22385, User</t>
-  </si>
-  <si>
-    <t>22385@fake_domain.com</t>
-  </si>
-  <si>
-    <t>NETID</t>
-  </si>
-  <si>
-    <t>PROG AREA</t>
-  </si>
-  <si>
-    <t>RESIGN DATE</t>
-  </si>
-  <si>
-    <t>16812, User</t>
-  </si>
-  <si>
-    <t>16812</t>
-  </si>
-  <si>
-    <t>SNAP-Ed</t>
-  </si>
-  <si>
-    <t>Winnebago</t>
-  </si>
-  <si>
-    <t>16100, User</t>
-  </si>
-  <si>
-    <t>16100</t>
-  </si>
-  <si>
-    <t>14401, User</t>
-  </si>
-  <si>
-    <t>14401</t>
-  </si>
-  <si>
-    <t>Ogle</t>
-  </si>
-  <si>
-    <t>19282, User</t>
-  </si>
-  <si>
-    <t>19282</t>
-  </si>
-  <si>
-    <t>DeKalb</t>
-  </si>
-  <si>
-    <t>18945, User</t>
-  </si>
-  <si>
-    <t>18945</t>
-  </si>
-  <si>
-    <t>15777, User</t>
-  </si>
-  <si>
-    <t>15777</t>
-  </si>
-  <si>
-    <t>22036, User</t>
-  </si>
-  <si>
-    <t>22036</t>
+    <t>Zamora, John</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Camacho, Brian</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Owen, Nicholas</t>
+  </si>
+  <si>
+    <t>Owen</t>
   </si>
   <si>
     <t>Whiteside</t>
   </si>
   <si>
-    <t>14761, User</t>
-  </si>
-  <si>
-    <t>14761</t>
+    <t>Mccarthy, Hailey</t>
+  </si>
+  <si>
+    <t>Mccarthy</t>
   </si>
   <si>
     <t>U2 &amp; U4</t>
   </si>
   <si>
-    <t>14425, User</t>
-  </si>
-  <si>
-    <t>14425</t>
+    <t>Dunn, Todd</t>
+  </si>
+  <si>
+    <t>Dunn</t>
   </si>
   <si>
     <t>Kane</t>
   </si>
   <si>
-    <t>17492, User</t>
-  </si>
-  <si>
-    <t>17492</t>
+    <t>Collins, Melissa</t>
+  </si>
+  <si>
+    <t>Collins</t>
   </si>
   <si>
     <t>EFNEP</t>
   </si>
   <si>
-    <t>15872, User</t>
-  </si>
-  <si>
-    <t>15872</t>
-  </si>
-  <si>
-    <t>17491, User</t>
-  </si>
-  <si>
-    <t>17491</t>
-  </si>
-  <si>
-    <t>21311, User</t>
-  </si>
-  <si>
-    <t>21311</t>
+    <t>Johnson, Tina</t>
+  </si>
+  <si>
+    <t>Matteson</t>
+  </si>
+  <si>
+    <t>Zimmerman, Gary</t>
+  </si>
+  <si>
+    <t>Zimmerman</t>
+  </si>
+  <si>
+    <t>Anderson, Brian</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Brown, Anna</t>
+  </si>
+  <si>
+    <t>Brown</t>
   </si>
   <si>
     <t>Rock Island</t>
   </si>
   <si>
-    <t>14438, User</t>
-  </si>
-  <si>
-    <t>14438</t>
-  </si>
-  <si>
-    <t>16668, User</t>
-  </si>
-  <si>
-    <t>16668</t>
+    <t>Allen, Shelley</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Thomas, William</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Chavez, Kevin</t>
+  </si>
+  <si>
+    <t>Chavez</t>
   </si>
   <si>
     <t>LaSalle</t>
   </si>
   <si>
-    <t>14679, User</t>
-  </si>
-  <si>
-    <t>14679</t>
+    <t>Hill, Justin</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>Valencia, John</t>
+  </si>
+  <si>
+    <t>Valencia</t>
   </si>
   <si>
     <t>McDonough</t>
   </si>
   <si>
-    <t>18901, User</t>
-  </si>
-  <si>
-    <t>18901</t>
-  </si>
-  <si>
-    <t>19967, User</t>
-  </si>
-  <si>
-    <t>19967</t>
-  </si>
-  <si>
-    <t>20555, User</t>
-  </si>
-  <si>
-    <t>20555</t>
+    <t>Howell, Terri</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Chavez, Jeffrey</t>
+  </si>
+  <si>
+    <t>Freeman, Lacey</t>
+  </si>
+  <si>
+    <t>Freeman</t>
   </si>
   <si>
     <t>384811/384835</t>
   </si>
   <si>
-    <t>19744, User</t>
-  </si>
-  <si>
-    <t>19744</t>
+    <t>Wood, David</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
   <si>
     <t>SNAP-Ed/EFNEP</t>
   </si>
   <si>
-    <t>20606</t>
-  </si>
-  <si>
-    <t>14355, User</t>
-  </si>
-  <si>
-    <t>14355</t>
-  </si>
-  <si>
-    <t>14757, User</t>
-  </si>
-  <si>
-    <t>14757</t>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Santos, Matthew</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Ward, Toni</t>
+  </si>
+  <si>
+    <t>Ward</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t>21713, User</t>
-  </si>
-  <si>
-    <t>21713</t>
+    <t>Orozco, Shannon</t>
+  </si>
+  <si>
+    <t>Orozco</t>
   </si>
   <si>
     <t>Hancock/Schuyler</t>
   </si>
   <si>
-    <t>18384, User</t>
-  </si>
-  <si>
-    <t>18384</t>
+    <t>Kelly, Daniel</t>
+  </si>
+  <si>
+    <t>Kelly</t>
   </si>
   <si>
     <t>Adams</t>
   </si>
   <si>
-    <t>16503, User</t>
-  </si>
-  <si>
-    <t>16503</t>
+    <t>Thomas, Thomas</t>
+  </si>
+  <si>
+    <t>Macoupin</t>
+  </si>
+  <si>
+    <t>Bryant, Victor</t>
+  </si>
+  <si>
+    <t>Bryant</t>
   </si>
   <si>
     <t>Edgar</t>
   </si>
   <si>
-    <t>14406, User</t>
-  </si>
-  <si>
-    <t>14406</t>
+    <t>Villarreal, Robyn</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
   </si>
   <si>
     <t>Fayette</t>
   </si>
   <si>
-    <t>19304, User</t>
-  </si>
-  <si>
-    <t>19304</t>
+    <t>Massey, Randall</t>
+  </si>
+  <si>
+    <t>Massey</t>
   </si>
   <si>
     <t>Madison</t>
   </si>
   <si>
-    <t>15206, User</t>
-  </si>
-  <si>
-    <t>15206</t>
-  </si>
-  <si>
-    <t>18710, User</t>
-  </si>
-  <si>
-    <t>18710</t>
-  </si>
-  <si>
-    <t>21997, User</t>
-  </si>
-  <si>
-    <t>21997</t>
-  </si>
-  <si>
-    <t>16120, User</t>
-  </si>
-  <si>
-    <t>16120</t>
+    <t>Nielsen, Michael</t>
+  </si>
+  <si>
+    <t>Nielsen</t>
+  </si>
+  <si>
+    <t>Williams, Elizabeth</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Robertson, Deborah</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Aguirre, Brenda</t>
+  </si>
+  <si>
+    <t>Aguirre</t>
+  </si>
+  <si>
+    <t>Lopez, Brittany</t>
+  </si>
+  <si>
+    <t>Lopez</t>
   </si>
   <si>
     <t>Bond</t>
   </si>
   <si>
-    <t>14410, User</t>
-  </si>
-  <si>
-    <t>14410</t>
-  </si>
-  <si>
-    <t>14413, User</t>
-  </si>
-  <si>
-    <t>14413</t>
-  </si>
-  <si>
-    <t>14411, User</t>
-  </si>
-  <si>
-    <t>14411</t>
+    <t>Benson, Javier</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>Sherman, Mark</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Banks, Tammy</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Lynch, Alyssa</t>
+  </si>
+  <si>
+    <t>Lynch</t>
   </si>
   <si>
     <t>Bond/Clinton</t>
   </si>
   <si>
-    <t>14798, User</t>
-  </si>
-  <si>
-    <t>14798</t>
+    <t>Richards, James</t>
+  </si>
+  <si>
+    <t>Richards</t>
   </si>
   <si>
     <t>Gallatin/Saline</t>
   </si>
   <si>
-    <t>20908, User</t>
-  </si>
-  <si>
-    <t>20908</t>
-  </si>
-  <si>
-    <t>17469, User</t>
-  </si>
-  <si>
-    <t>17469</t>
+    <t>Griffin, Denise</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Terry, Michael</t>
+  </si>
+  <si>
+    <t>Terry</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -1054,118 +1091,277 @@
     <t xml:space="preserve">Room </t>
   </si>
   <si>
-    <t>email Address</t>
-  </si>
-  <si>
-    <t>14882</t>
-  </si>
-  <si>
-    <t>User</t>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Gregory</t>
   </si>
   <si>
     <t xml:space="preserve">Nutrition Assistant </t>
   </si>
   <si>
-    <t xml:space="preserve">Food Access Intervention </t>
-  </si>
-  <si>
-    <t>14882@fake_domain.com</t>
-  </si>
-  <si>
-    <t>15208</t>
-  </si>
-  <si>
-    <t>Healthy Schools Intervention</t>
-  </si>
-  <si>
-    <t>15208@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14402</t>
-  </si>
-  <si>
-    <t>Cooking/Kitchen Skill Coordinator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Across All Interventions </t>
-  </si>
-  <si>
-    <t>14857@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14851</t>
+    <t xml:space="preserve">Food Access </t>
+  </si>
+  <si>
+    <t>Gregory.Parker@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Robbins</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy Schools </t>
+  </si>
+  <si>
+    <t>Ronald.Robbins@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Mullen</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Cooking/Kitchen Skill Coord.</t>
+  </si>
+  <si>
+    <t>All Interventions</t>
+  </si>
+  <si>
+    <t>Barbara.Foster@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Logan</t>
   </si>
   <si>
     <t>Team Coordinator</t>
   </si>
   <si>
-    <t>14851@fake_domain.com</t>
-  </si>
-  <si>
-    <t>16738</t>
+    <t>Logan.Ward@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Claudiaan</t>
+  </si>
+  <si>
+    <t>Jake.Roberts@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Nichols</t>
+  </si>
+  <si>
+    <t>Josephinda Joseph.</t>
+  </si>
+  <si>
+    <t>Nutrition Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Childhood </t>
+  </si>
+  <si>
+    <t>Linda.Nichols@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik </t>
+  </si>
+  <si>
+    <t>Administrative Assistant</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Erik.Velazquez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Katherine I.</t>
   </si>
   <si>
     <t>Nutrition Peer Educator</t>
   </si>
   <si>
-    <t>16738@fake_domain.com</t>
-  </si>
-  <si>
-    <t>18576</t>
+    <t>Katherine.Lynch@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Anita A.</t>
+  </si>
+  <si>
+    <t>Anita.Rice@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Colleen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Access  </t>
+  </si>
+  <si>
+    <t>Linda.Williams@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Melissa</t>
   </si>
   <si>
     <t>Health Education Specialist</t>
   </si>
   <si>
-    <t>Community Adults Intervention</t>
-  </si>
-  <si>
-    <t>18576@fake_domain.com</t>
-  </si>
-  <si>
-    <t>19880</t>
-  </si>
-  <si>
-    <t>Intervention Coord. - Food Access</t>
-  </si>
-  <si>
-    <t>19880@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14858</t>
-  </si>
-  <si>
-    <t>14858@fake_domain.com</t>
-  </si>
-  <si>
-    <t>19881</t>
-  </si>
-  <si>
-    <t>19881@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14853</t>
+    <t xml:space="preserve">Community Adults </t>
+  </si>
+  <si>
+    <t>Melissa.Miller@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Intervention Coord. - FA</t>
+  </si>
+  <si>
+    <t>Amber.Perez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>DarNicholas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Education Specialist </t>
+  </si>
+  <si>
+    <t>Rachel.Peterson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Michael.Jenkins@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>Jasonr</t>
+  </si>
+  <si>
+    <t>Intervention Coordinator - HS</t>
+  </si>
+  <si>
+    <t>Jason.Lowe@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Claudiaanette</t>
+  </si>
+  <si>
+    <t>Vanessa.Morris@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Acting Intervention Coord. - CA/NA</t>
+  </si>
+  <si>
+    <t>Christine.Jones@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Robert Jamie</t>
+  </si>
+  <si>
+    <t>Intervention Coordinator - EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert.Blackburn@fake_domain.com </t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Angela</t>
   </si>
   <si>
     <t>Cooking Matters Coordinator</t>
   </si>
   <si>
-    <t>14853@fake_domain.com</t>
-  </si>
-  <si>
-    <t>14862</t>
-  </si>
-  <si>
-    <t>14862@fake_domain.com</t>
-  </si>
-  <si>
-    <t>19883</t>
-  </si>
-  <si>
-    <t>Nutrition Assistant</t>
-  </si>
-  <si>
-    <t>19883@fake_domain.com</t>
+    <t>Angela.Newton@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Thomas.Young@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Cynthia Joseph.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSE Program Coordinator </t>
+  </si>
+  <si>
+    <t>Cynthia.Butler@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Carlalas R.</t>
+  </si>
+  <si>
+    <t>Michael.Turner@fake_domain.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holly D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Systems Coordinator </t>
+  </si>
+  <si>
+    <t>Food Systems</t>
+  </si>
+  <si>
+    <t>Holly.Johnson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Spencer.Love@fake_domain.com</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J731"/>
+  <dimension ref="A1:J732"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1707,19 +1903,19 @@
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>384710</v>
+        <v>384611</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1731,18 +1927,18 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>384710</v>
+        <v>384611</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1751,62 +1947,62 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>384611</v>
+        <v>384811</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>384611</v>
+        <v>384811</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1815,22 +2011,22 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,28 +2037,28 @@
         <v>384811</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,92 +2069,92 @@
         <v>384811</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>384811</v>
+        <v>384812</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>384811</v>
+        <v>384812</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1969,36 +2165,36 @@
         <v>384812</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>384812</v>
+        <v>384813</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2007,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -2016,53 +2212,53 @@
         <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>384812</v>
+        <v>384813</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
         <v>59</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>384813</v>
+        <v>384814</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2071,62 +2267,62 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>384813</v>
+        <v>384815</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>384814</v>
+        <v>384815</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -2135,22 +2331,22 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
         <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2161,36 +2357,36 @@
         <v>384815</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>384815</v>
+        <v>384817</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2199,30 +2395,30 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>384815</v>
+        <v>384817</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -2231,30 +2427,30 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>81</v>
-      </c>
-      <c r="I23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>384817</v>
+        <v>384819</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -2263,30 +2459,30 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>384817</v>
+        <v>384819</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -2295,22 +2491,22 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
         <v>88</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,28 +2517,28 @@
         <v>384819</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E26">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,62 +2555,62 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>384819</v>
+        <v>384820</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>384819</v>
+        <v>384820</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -2423,22 +2619,22 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
         <v>101</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
         <v>102</v>
-      </c>
-      <c r="H29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2455,22 +2651,22 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
         <v>108</v>
@@ -2496,13 +2692,13 @@
         <v>109</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2519,30 +2715,30 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>384820</v>
+        <v>384821</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2551,30 +2747,30 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>384820</v>
+        <v>384821</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2583,22 +2779,22 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
         <v>117</v>
-      </c>
-      <c r="H34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,88 +2811,26 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>384821</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>221</v>
-      </c>
-      <c r="F36" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>384821</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>222</v>
-      </c>
-      <c r="F37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" t="s">
-        <v>122</v>
-      </c>
-    </row>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2844,18 +2978,18 @@
     <row r="182" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="183" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="184" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="187" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="188" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="190" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="197" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="198" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="199" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2865,8 +2999,8 @@
     <row r="203" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="204" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="205" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="208" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="209" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="210" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3391,6 +3525,7 @@
     <row r="729" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="730" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="731" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3431,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3466,10 +3601,10 @@
         <v>0.16</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3495,13 +3630,13 @@
         <v>0.25</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -3518,25 +3653,25 @@
         <v>384821</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3598,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -3618,13 +3753,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3635,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3652,13 +3787,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3669,13 +3804,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3683,13 +3818,13 @@
         <v>384509</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3700,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3717,13 +3852,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3734,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3751,13 +3886,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3768,13 +3903,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3785,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3846,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -3861,7 +3996,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,16 +4007,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3889,22 +4024,22 @@
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3912,22 +4047,22 @@
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3993,19 +4128,19 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,19 +4151,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F2">
         <v>384710</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,19 +4174,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F3">
         <v>384712</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4059,22 +4194,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F4">
         <v>384611</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,22 +4217,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F5">
         <v>384811</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,22 +4240,22 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
         <v>189</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
       </c>
       <c r="F6">
         <v>384812</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,22 +4263,22 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F7">
         <v>384814</v>
       </c>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4151,22 +4286,22 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F8">
         <v>384815</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4174,22 +4309,22 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F9">
         <v>384819</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,22 +4332,22 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F10">
         <v>384820</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,22 +4355,22 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F11">
         <v>384821</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4287,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -4302,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,19 +4448,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4336,19 +4471,19 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4359,19 +4494,19 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>0.4</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4382,19 +4517,19 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,19 +4540,19 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>0.6</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4434,13 +4569,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,13 +4592,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,19 +4609,19 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,19 +4632,19 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
         <v>225</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" t="s">
-        <v>230</v>
-      </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4523,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,13 +4678,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4601,7 +4736,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -4634,19 +4769,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4657,22 +4792,22 @@
         <v>384714</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I2">
         <v>44448</v>
@@ -4686,22 +4821,22 @@
         <v>384714</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I3">
         <v>44456</v>
@@ -4715,22 +4850,22 @@
         <v>384715</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I4">
         <v>44680</v>
@@ -4744,22 +4879,22 @@
         <v>384715</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I5">
         <v>44330</v>
@@ -4773,19 +4908,19 @@
         <v>384710</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -4802,170 +4937,170 @@
         <v>384710</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="I7">
-        <v>44743</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>384612</v>
+        <v>384710</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>44518</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>384612</v>
+        <v>384710</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I9">
-        <v>44673</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>384711</v>
+        <v>384612</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I10">
-        <v>44470</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>384735</v>
+        <v>384612</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="I11">
-        <v>44594</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>384735</v>
+        <v>384711</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="I12">
-        <v>44715</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4976,13 +5111,13 @@
         <v>384735</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4991,271 +5126,271 @@
         <v>265</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I13">
-        <v>44490</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>384613</v>
+        <v>384712</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I14">
-        <v>44427</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>384613</v>
+        <v>384735</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="I15">
-        <v>44410</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>384816</v>
+        <v>384735</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="I16">
-        <v>44414</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>384615</v>
+        <v>384613</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I17">
-        <v>44654</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>384811</v>
+        <v>384613</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
       <c r="I18">
-        <v>44624</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>384811</v>
+        <v>384613</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
       <c r="I19">
-        <v>44433</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>384811</v>
+        <v>384816</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="I20">
-        <v>44491</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>287</v>
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>384816</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="I21">
-        <v>44426</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>384835</v>
+        <v>384615</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="I22">
-        <v>44638</v>
+        <v>44654</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5263,491 +5398,723 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>384835</v>
+        <v>384811</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F23">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I23">
-        <v>44568</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>384617</v>
+        <v>384811</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="I24">
-        <v>44666</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>384617</v>
+        <v>384811</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="I25">
-        <v>44519</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>384617</v>
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="H26" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="I26">
-        <v>44596</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>384814</v>
+        <v>384835</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H27" t="s">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="I27">
-        <v>44463</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>384815</v>
+        <v>384835</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="G28" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H28" t="s">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="I28">
-        <v>44712</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>384816</v>
+        <v>384617</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H29" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I29">
-        <v>44466</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>384816</v>
+        <v>384617</v>
       </c>
       <c r="C30" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H30" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I30">
-        <v>44389</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>384816</v>
+        <v>384617</v>
       </c>
       <c r="C31" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I31">
-        <v>44694</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>384816</v>
+        <v>384620</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I32">
-        <v>44582</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>384817</v>
+        <v>384814</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I33">
-        <v>44456</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>384817</v>
+        <v>384815</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="I34">
-        <v>44417</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>384817</v>
+        <v>384816</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="I35">
-        <v>44742</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>384817</v>
+        <v>384816</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I36">
-        <v>44532</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>384818</v>
+        <v>384816</v>
       </c>
       <c r="C37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I37">
-        <v>44561</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>384820</v>
+        <v>384816</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="I38">
-        <v>44463</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>381821</v>
+        <v>384816</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>384817</v>
+      </c>
+      <c r="C40" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>384817</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>384817</v>
+      </c>
+      <c r="C42" t="s">
+        <v>333</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>334</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39" t="s">
-        <v>296</v>
-      </c>
-      <c r="I39">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>384817</v>
+      </c>
+      <c r="C43" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>336</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>384817</v>
+      </c>
+      <c r="C44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>338</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" t="s">
+        <v>339</v>
+      </c>
+      <c r="I44">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>384818</v>
+      </c>
+      <c r="C45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" t="s">
+        <v>342</v>
+      </c>
+      <c r="I45">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>384820</v>
+      </c>
+      <c r="C46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>344</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>381821</v>
+      </c>
+      <c r="C47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>346</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" t="s">
+        <v>302</v>
+      </c>
+      <c r="I47">
         <v>44456</v>
       </c>
     </row>
@@ -5759,21 +6126,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
@@ -5782,298 +6149,517 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E2">
         <v>825</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="E3">
         <v>830</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E4">
         <v>826</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="E5">
         <v>829</v>
       </c>
       <c r="F5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" t="s">
-        <v>357</v>
-      </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E6">
+        <v>827</v>
+      </c>
+      <c r="F6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7">
+        <v>829</v>
+      </c>
+      <c r="F7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8">
+        <v>814</v>
+      </c>
+      <c r="F8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>830</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10">
+        <v>829</v>
+      </c>
+      <c r="F10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11">
         <v>825</v>
       </c>
-      <c r="F6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7">
-        <v>824</v>
-      </c>
-      <c r="F7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E8">
-        <v>824</v>
-      </c>
-      <c r="F8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9">
-        <v>823</v>
-      </c>
-      <c r="F9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10">
-        <v>823</v>
-      </c>
-      <c r="F10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E11">
-        <v>826</v>
-      </c>
       <c r="F11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="C12" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="E12">
         <v>824</v>
       </c>
       <c r="F12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13">
+        <v>824</v>
+      </c>
+      <c r="F13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14">
+        <v>816</v>
+      </c>
+      <c r="F14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15">
+        <v>823</v>
+      </c>
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>816</v>
+      </c>
+      <c r="F16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17">
+        <v>816</v>
+      </c>
+      <c r="F17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18">
+        <v>823</v>
+      </c>
+      <c r="F18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E19">
+        <v>827</v>
+      </c>
+      <c r="F19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20">
+        <v>826</v>
+      </c>
+      <c r="F20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21">
+        <v>824</v>
+      </c>
+      <c r="F21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22">
+        <v>823</v>
+      </c>
+      <c r="F22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E23">
+        <v>823</v>
+      </c>
+      <c r="F23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24">
+        <v>826</v>
+      </c>
+      <c r="F24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>440</v>
+      </c>
+      <c r="B25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C25" t="s">
         <v>375</v>
       </c>
-      <c r="B13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13">
+      <c r="D25" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25">
         <v>823</v>
       </c>
-      <c r="F13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>